--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H2">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I2">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J2">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N2">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O2">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P2">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q2">
-        <v>831.6583019978573</v>
+        <v>0.8149548875475</v>
       </c>
       <c r="R2">
-        <v>4989.949811987144</v>
+        <v>3.25981955019</v>
       </c>
       <c r="S2">
-        <v>0.1132695212213466</v>
+        <v>7.451132993911602E-05</v>
       </c>
       <c r="T2">
-        <v>0.0865247178615762</v>
+        <v>3.858321120588824E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H3">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I3">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J3">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P3">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q3">
-        <v>466.5250334495938</v>
+        <v>0.4631019113163333</v>
       </c>
       <c r="R3">
-        <v>4198.725301046345</v>
+        <v>2.778611467898</v>
       </c>
       <c r="S3">
-        <v>0.06353939718952548</v>
+        <v>4.234141034894443E-05</v>
       </c>
       <c r="T3">
-        <v>0.072805045288947</v>
+        <v>3.288763426146182E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H4">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I4">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J4">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N4">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O4">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P4">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q4">
-        <v>348.9546106337705</v>
+        <v>0.6965890621876667</v>
       </c>
       <c r="R4">
-        <v>3140.591495703934</v>
+        <v>4.179534373126</v>
       </c>
       <c r="S4">
-        <v>0.04752663633552043</v>
+        <v>6.368914186261556E-05</v>
       </c>
       <c r="T4">
-        <v>0.05445721967613021</v>
+        <v>4.946895218515732E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H5">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I5">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J5">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N5">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O5">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P5">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q5">
-        <v>441.374559847915</v>
+        <v>0.342232827769</v>
       </c>
       <c r="R5">
-        <v>2648.24735908749</v>
+        <v>1.368931311076</v>
       </c>
       <c r="S5">
-        <v>0.0601139734349513</v>
+        <v>3.12903493623214E-05</v>
       </c>
       <c r="T5">
-        <v>0.04592007218634921</v>
+        <v>1.620266554279678E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H6">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I6">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J6">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N6">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O6">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P6">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q6">
-        <v>616.2908731460421</v>
+        <v>0.13426248843</v>
       </c>
       <c r="R6">
-        <v>5546.61785831438</v>
+        <v>0.80557493058</v>
       </c>
       <c r="S6">
-        <v>0.08393708325479768</v>
+        <v>1.227562007016172E-05</v>
       </c>
       <c r="T6">
-        <v>0.09617722890193033</v>
+        <v>9.534781668183227E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H7">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I7">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J7">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N7">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O7">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P7">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q7">
-        <v>629.4917206486322</v>
+        <v>0.272470358678</v>
       </c>
       <c r="R7">
-        <v>5665.42548583769</v>
+        <v>1.634822152068</v>
       </c>
       <c r="S7">
-        <v>0.0857350015497782</v>
+        <v>2.491196642207073E-05</v>
       </c>
       <c r="T7">
-        <v>0.09823732907098673</v>
+        <v>1.934974847722106E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H8">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I8">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J8">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N8">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O8">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P8">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q8">
-        <v>5.054078234424499</v>
+        <v>1431.1068956875</v>
       </c>
       <c r="R8">
-        <v>30.324469406547</v>
+        <v>8586.641374125</v>
       </c>
       <c r="S8">
-        <v>0.0006883512380664799</v>
+        <v>0.1308461114990248</v>
       </c>
       <c r="T8">
-        <v>0.0005258201502148169</v>
+        <v>0.101631453086958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H9">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I9">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J9">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>53.453339</v>
       </c>
       <c r="O9">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P9">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q9">
-        <v>2.835123525740777</v>
+        <v>813.2331602861112</v>
       </c>
       <c r="R9">
-        <v>25.516111731667</v>
+        <v>7319.098442575</v>
       </c>
       <c r="S9">
-        <v>0.0003861358488126548</v>
+        <v>0.07435391240595099</v>
       </c>
       <c r="T9">
-        <v>0.0004424442031868335</v>
+        <v>0.08662882000020508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H10">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I10">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J10">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N10">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O10">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P10">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q10">
-        <v>2.120635239460111</v>
+        <v>1223.249808780556</v>
       </c>
       <c r="R10">
-        <v>19.085717155141</v>
+        <v>11009.248279025</v>
       </c>
       <c r="S10">
-        <v>0.0002888245541248517</v>
+        <v>0.1118417368773632</v>
       </c>
       <c r="T10">
-        <v>0.0003309424652062361</v>
+        <v>0.1303054187594296</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H11">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I11">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J11">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N11">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O11">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P11">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q11">
-        <v>2.682281353769</v>
+        <v>600.9802103583335</v>
       </c>
       <c r="R11">
-        <v>16.093688122614</v>
+        <v>3605.881262150001</v>
       </c>
       <c r="S11">
-        <v>0.0003653191749454124</v>
+        <v>0.05494762400364048</v>
       </c>
       <c r="T11">
-        <v>0.0002790612885156136</v>
+        <v>0.04267919624961428</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H12">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I12">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J12">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N12">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O12">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P12">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q12">
-        <v>3.745266872896444</v>
+        <v>235.77252675</v>
       </c>
       <c r="R12">
-        <v>33.707401856068</v>
+        <v>2121.95274075</v>
       </c>
       <c r="S12">
-        <v>0.0005100948124007821</v>
+        <v>0.02155668344307508</v>
       </c>
       <c r="T12">
-        <v>0.000584479512887447</v>
+        <v>0.02511542418367874</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H13">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I13">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J13">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N13">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O13">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P13">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q13">
-        <v>3.825489863370445</v>
+        <v>478.4733672166668</v>
       </c>
       <c r="R13">
-        <v>34.429408770334</v>
+        <v>4306.26030495</v>
       </c>
       <c r="S13">
-        <v>0.0005210209580306709</v>
+        <v>0.04374682264812223</v>
       </c>
       <c r="T13">
-        <v>0.0005969989663699049</v>
+        <v>0.05096887980923193</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H14">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I14">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J14">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N14">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O14">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P14">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q14">
-        <v>994.6435346064235</v>
+        <v>1202.41934786728</v>
       </c>
       <c r="R14">
-        <v>5967.861207638541</v>
+        <v>7214.516087203679</v>
       </c>
       <c r="S14">
-        <v>0.1354676514142075</v>
+        <v>0.1099372077192354</v>
       </c>
       <c r="T14">
-        <v>0.1034815031581124</v>
+        <v>0.08539098365878373</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H15">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I15">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J15">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>53.453339</v>
       </c>
       <c r="O15">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P15">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q15">
-        <v>557.9528360842113</v>
+        <v>683.2803958962951</v>
       </c>
       <c r="R15">
-        <v>5021.575524757902</v>
+        <v>6149.523563066656</v>
       </c>
       <c r="S15">
-        <v>0.07599160671579984</v>
+        <v>0.06247233042895423</v>
       </c>
       <c r="T15">
-        <v>0.08707310130785606</v>
+        <v>0.07278573638702115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H16">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I16">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J16">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N16">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O16">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P16">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q16">
-        <v>417.3414087302359</v>
+        <v>1027.777339194563</v>
       </c>
       <c r="R16">
-        <v>3756.072678572123</v>
+        <v>9249.996052751072</v>
       </c>
       <c r="S16">
-        <v>0.05684072585959458</v>
+        <v>0.09396968788681485</v>
       </c>
       <c r="T16">
-        <v>0.06512953857778501</v>
+        <v>0.1094829164197526</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H17">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I17">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J17">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N17">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O17">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P17">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q17">
-        <v>527.8734682716071</v>
+        <v>504.9449728722453</v>
       </c>
       <c r="R17">
-        <v>3167.240809629643</v>
+        <v>3029.669837233472</v>
       </c>
       <c r="S17">
-        <v>0.07189488143500869</v>
+        <v>0.04616712170167692</v>
       </c>
       <c r="T17">
-        <v>0.05491931337556728</v>
+        <v>0.03585916012046583</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H18">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I18">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J18">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N18">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O18">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P18">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q18">
-        <v>737.0692157333116</v>
+        <v>198.09662626464</v>
       </c>
       <c r="R18">
-        <v>6633.622941599805</v>
+        <v>1782.86963638176</v>
       </c>
       <c r="S18">
-        <v>0.1003867537575795</v>
+        <v>0.01811197565039455</v>
       </c>
       <c r="T18">
-        <v>0.1150256766196672</v>
+        <v>0.0211020379115995</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>38.34823466666666</v>
+      </c>
+      <c r="H19">
+        <v>115.044704</v>
+      </c>
+      <c r="I19">
+        <v>0.3674145056948628</v>
+      </c>
+      <c r="J19">
+        <v>0.367445006057708</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.483258</v>
+      </c>
+      <c r="N19">
+        <v>31.449774</v>
+      </c>
+      <c r="O19">
+        <v>0.1000400956904865</v>
+      </c>
+      <c r="P19">
+        <v>0.1165457982938529</v>
+      </c>
+      <c r="Q19">
+        <v>402.0144378552106</v>
+      </c>
+      <c r="R19">
+        <v>3618.129940696896</v>
+      </c>
+      <c r="S19">
+        <v>0.03675618230778686</v>
+      </c>
+      <c r="T19">
+        <v>0.04282417156008517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H20">
+        <v>61.07198</v>
+      </c>
+      <c r="I20">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J20">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>31.3552725</v>
+      </c>
+      <c r="N20">
+        <v>62.710545</v>
+      </c>
+      <c r="O20">
+        <v>0.299218473999331</v>
+      </c>
+      <c r="P20">
+        <v>0.2323911939229701</v>
+      </c>
+      <c r="Q20">
+        <v>638.3095250048499</v>
+      </c>
+      <c r="R20">
+        <v>3829.8571500291</v>
+      </c>
+      <c r="S20">
+        <v>0.05836064345113173</v>
+      </c>
+      <c r="T20">
+        <v>0.04533017396602252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H21">
+        <v>61.07198</v>
+      </c>
+      <c r="I21">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J21">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N21">
+        <v>53.453339</v>
+      </c>
+      <c r="O21">
+        <v>0.1700322917594261</v>
+      </c>
+      <c r="P21">
+        <v>0.1980860678117095</v>
+      </c>
+      <c r="Q21">
+        <v>362.7223611490244</v>
+      </c>
+      <c r="R21">
+        <v>3264.50125034122</v>
+      </c>
+      <c r="S21">
+        <v>0.03316370751417191</v>
+      </c>
+      <c r="T21">
+        <v>0.03863862379022183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H22">
+        <v>61.07198</v>
+      </c>
+      <c r="I22">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J22">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>26.80116433333333</v>
+      </c>
+      <c r="N22">
+        <v>80.403493</v>
+      </c>
+      <c r="O22">
+        <v>0.2557593302123367</v>
+      </c>
+      <c r="P22">
+        <v>0.2979572850761729</v>
+      </c>
+      <c r="Q22">
+        <v>545.6000573806822</v>
+      </c>
+      <c r="R22">
+        <v>4910.40051642614</v>
+      </c>
+      <c r="S22">
+        <v>0.04988421630629603</v>
+      </c>
+      <c r="T22">
+        <v>0.0581194809448056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H23">
+        <v>61.07198</v>
+      </c>
+      <c r="I23">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J23">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>13.167359</v>
+      </c>
+      <c r="N23">
+        <v>26.334718</v>
+      </c>
+      <c r="O23">
+        <v>0.1256540528098219</v>
+      </c>
+      <c r="P23">
+        <v>0.09759054968577822</v>
+      </c>
+      <c r="Q23">
+        <v>268.0522285002733</v>
+      </c>
+      <c r="R23">
+        <v>1608.31337100164</v>
+      </c>
+      <c r="S23">
+        <v>0.02450801675514223</v>
+      </c>
+      <c r="T23">
+        <v>0.01903599065015532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>31.31438633333333</v>
-      </c>
-      <c r="H19">
-        <v>93.94315900000001</v>
-      </c>
-      <c r="I19">
-        <v>0.5431186404276995</v>
-      </c>
-      <c r="J19">
-        <v>0.5431186404276995</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>24.04189266666667</v>
-      </c>
-      <c r="N19">
-        <v>72.12567800000001</v>
-      </c>
-      <c r="O19">
-        <v>0.1887930437533183</v>
-      </c>
-      <c r="P19">
-        <v>0.2163238354260682</v>
-      </c>
-      <c r="Q19">
-        <v>752.8571151485337</v>
-      </c>
-      <c r="R19">
-        <v>6775.714036336803</v>
-      </c>
-      <c r="S19">
-        <v>0.1025370212455094</v>
-      </c>
-      <c r="T19">
-        <v>0.1174895073887116</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H24">
+        <v>61.07198</v>
+      </c>
+      <c r="I24">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J24">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.16573</v>
+      </c>
+      <c r="N24">
+        <v>15.49719</v>
+      </c>
+      <c r="O24">
+        <v>0.04929575552859776</v>
+      </c>
+      <c r="P24">
+        <v>0.05742910520951641</v>
+      </c>
+      <c r="Q24">
+        <v>105.1604530818</v>
+      </c>
+      <c r="R24">
+        <v>946.4440777361999</v>
+      </c>
+      <c r="S24">
+        <v>0.009614820815057969</v>
+      </c>
+      <c r="T24">
+        <v>0.01120210833256998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H25">
+        <v>61.07198</v>
+      </c>
+      <c r="I25">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J25">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.483258</v>
+      </c>
+      <c r="N25">
+        <v>31.449774</v>
+      </c>
+      <c r="O25">
+        <v>0.1000400956904865</v>
+      </c>
+      <c r="P25">
+        <v>0.1165457982938529</v>
+      </c>
+      <c r="Q25">
+        <v>213.4111076369467</v>
+      </c>
+      <c r="R25">
+        <v>1920.69996873252</v>
+      </c>
+      <c r="S25">
+        <v>0.01951217876815532</v>
+      </c>
+      <c r="T25">
+        <v>0.02273339717605854</v>
       </c>
     </row>
   </sheetData>
